--- a/public/sampleExcel/stock_in_sample.xlsx
+++ b/public/sampleExcel/stock_in_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vun.thy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\prodsystem\public\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D8119-84AF-4580-94D3-BF1A9C17CAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF1FCE-C6A8-4143-8975-88EB51227FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,67 +402,67 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
